--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Efna1-Epha4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Efna1-Epha4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -95,9 +95,6 @@
   </si>
   <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -455,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>18.33198466666667</v>
+        <v>21.23829066666667</v>
       </c>
       <c r="H2">
-        <v>54.995954</v>
+        <v>63.714872</v>
       </c>
       <c r="I2">
-        <v>0.8831875137004506</v>
+        <v>0.9042366413687101</v>
       </c>
       <c r="J2">
-        <v>0.8831875137004505</v>
+        <v>0.90423664136871</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.588395333333334</v>
+        <v>6.458467</v>
       </c>
       <c r="N2">
-        <v>19.765186</v>
+        <v>19.375401</v>
       </c>
       <c r="O2">
-        <v>0.6088932199877385</v>
+        <v>0.6832669775810905</v>
       </c>
       <c r="P2">
-        <v>0.6088932199877384</v>
+        <v>0.6832669775810902</v>
       </c>
       <c r="Q2">
-        <v>120.7783622286049</v>
+        <v>137.1667994070747</v>
       </c>
       <c r="R2">
-        <v>1087.005260057444</v>
+        <v>1234.501194663672</v>
       </c>
       <c r="S2">
-        <v>0.5377668890700322</v>
+        <v>0.617835036966075</v>
       </c>
       <c r="T2">
-        <v>0.5377668890700321</v>
+        <v>0.6178350369660747</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>18.33198466666667</v>
+        <v>21.23829066666667</v>
       </c>
       <c r="H3">
-        <v>54.995954</v>
+        <v>63.714872</v>
       </c>
       <c r="I3">
-        <v>0.8831875137004506</v>
+        <v>0.9042366413687101</v>
       </c>
       <c r="J3">
-        <v>0.8831875137004505</v>
+        <v>0.90423664136871</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +626,22 @@
         <v>7.350066</v>
       </c>
       <c r="O3">
-        <v>0.2264286991208885</v>
+        <v>0.2591975970376838</v>
       </c>
       <c r="P3">
-        <v>0.2264286991208884</v>
+        <v>0.2591975970376837</v>
       </c>
       <c r="Q3">
-        <v>44.91376573699601</v>
+        <v>52.034279375728</v>
       </c>
       <c r="R3">
-        <v>404.223891632964</v>
+        <v>468.308514381552</v>
       </c>
       <c r="S3">
-        <v>0.1999789998070049</v>
+        <v>0.2343759645961955</v>
       </c>
       <c r="T3">
-        <v>0.1999789998070048</v>
+        <v>0.2343759645961954</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>18.33198466666667</v>
+        <v>21.23829066666667</v>
       </c>
       <c r="H4">
-        <v>54.995954</v>
+        <v>63.714872</v>
       </c>
       <c r="I4">
-        <v>0.8831875137004506</v>
+        <v>0.9042366413687101</v>
       </c>
       <c r="J4">
-        <v>0.8831875137004505</v>
+        <v>0.90423664136871</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -685,28 +682,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.02679433333333334</v>
+        <v>0.02679433333333333</v>
       </c>
       <c r="N4">
-        <v>0.08038300000000001</v>
+        <v>0.080383</v>
       </c>
       <c r="O4">
-        <v>0.002476306759889555</v>
+        <v>0.00283467936786964</v>
       </c>
       <c r="P4">
-        <v>0.002476306759889555</v>
+        <v>0.002834679367869639</v>
       </c>
       <c r="Q4">
-        <v>0.4911933078202223</v>
+        <v>0.5690658395528889</v>
       </c>
       <c r="R4">
-        <v>4.420739770382</v>
+        <v>5.121592555976</v>
       </c>
       <c r="S4">
-        <v>0.002187043210426474</v>
+        <v>0.002563220950959622</v>
       </c>
       <c r="T4">
-        <v>0.002187043210426474</v>
+        <v>0.002563220950959621</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>18.33198466666667</v>
+        <v>21.23829066666667</v>
       </c>
       <c r="H5">
-        <v>54.995954</v>
+        <v>63.714872</v>
       </c>
       <c r="I5">
-        <v>0.8831875137004506</v>
+        <v>0.9042366413687101</v>
       </c>
       <c r="J5">
-        <v>0.8831875137004505</v>
+        <v>0.90423664136871</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.706050333333333</v>
+        <v>0.4704593333333333</v>
       </c>
       <c r="N5">
-        <v>5.118151</v>
+        <v>1.411378</v>
       </c>
       <c r="O5">
-        <v>0.157671546464246</v>
+        <v>0.04977176886736147</v>
       </c>
       <c r="P5">
-        <v>0.1576715464642459</v>
+        <v>0.04977176886736145</v>
       </c>
       <c r="Q5">
-        <v>31.27528855122823</v>
+        <v>9.991752068179556</v>
       </c>
       <c r="R5">
-        <v>281.477596961054</v>
+        <v>89.925768613616</v>
       </c>
       <c r="S5">
-        <v>0.1392535411030625</v>
+        <v>0.04500545711560266</v>
       </c>
       <c r="T5">
-        <v>0.1392535411030624</v>
+        <v>0.04500545711560264</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>18.33198466666667</v>
+        <v>21.23829066666667</v>
       </c>
       <c r="H6">
-        <v>54.995954</v>
+        <v>63.714872</v>
       </c>
       <c r="I6">
-        <v>0.8831875137004506</v>
+        <v>0.9042366413687101</v>
       </c>
       <c r="J6">
-        <v>0.8831875137004505</v>
+        <v>0.90423664136871</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -815,37 +812,37 @@
         <v>0.139771</v>
       </c>
       <c r="O6">
-        <v>0.004305834220376484</v>
+        <v>0.004928977145994893</v>
       </c>
       <c r="P6">
-        <v>0.004305834220376484</v>
+        <v>0.004928977145994892</v>
       </c>
       <c r="Q6">
-        <v>0.8540932762815556</v>
+        <v>0.9894990415902224</v>
       </c>
       <c r="R6">
-        <v>7.686839486534</v>
+        <v>8.905491374312</v>
       </c>
       <c r="S6">
-        <v>0.003802859019500625</v>
+        <v>0.004456961739877552</v>
       </c>
       <c r="T6">
-        <v>0.003802859019500625</v>
+        <v>0.00445696173987755</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
         <v>20</v>
       </c>
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>27</v>
-      </c>
       <c r="E7">
         <v>3</v>
       </c>
@@ -853,46 +850,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>18.33198466666667</v>
+        <v>1.394651</v>
       </c>
       <c r="H7">
-        <v>54.995954</v>
+        <v>4.183953000000001</v>
       </c>
       <c r="I7">
-        <v>0.8831875137004506</v>
+        <v>0.05937834432696559</v>
       </c>
       <c r="J7">
-        <v>0.8831875137004505</v>
+        <v>0.05937834432696559</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.002428</v>
+        <v>6.458467</v>
       </c>
       <c r="N7">
-        <v>0.007284000000000001</v>
+        <v>19.375401</v>
       </c>
       <c r="O7">
-        <v>0.0002243934468610964</v>
+        <v>0.6832669775810905</v>
       </c>
       <c r="P7">
-        <v>0.0002243934468610964</v>
+        <v>0.6832669775810902</v>
       </c>
       <c r="Q7">
-        <v>0.04451005877066667</v>
+        <v>9.007307460017001</v>
       </c>
       <c r="R7">
-        <v>0.400590528936</v>
+        <v>81.06576714015301</v>
       </c>
       <c r="S7">
-        <v>0.0001981814904239259</v>
+        <v>0.04057126186205507</v>
       </c>
       <c r="T7">
-        <v>0.0001981814904239259</v>
+        <v>0.04057126186205506</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,7 +903,7 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -921,10 +918,10 @@
         <v>4.183953000000001</v>
       </c>
       <c r="I8">
-        <v>0.06719067092662021</v>
+        <v>0.05937834432696559</v>
       </c>
       <c r="J8">
-        <v>0.06719067092662019</v>
+        <v>0.05937834432696559</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +930,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>6.588395333333334</v>
+        <v>2.450022</v>
       </c>
       <c r="N8">
-        <v>19.765186</v>
+        <v>7.350066</v>
       </c>
       <c r="O8">
-        <v>0.6088932199877385</v>
+        <v>0.2591975970376838</v>
       </c>
       <c r="P8">
-        <v>0.6088932199877384</v>
+        <v>0.2591975970376837</v>
       </c>
       <c r="Q8">
-        <v>9.188512140028669</v>
+        <v>3.416925632322001</v>
       </c>
       <c r="R8">
-        <v>82.69660926025801</v>
+        <v>30.75233069089801</v>
       </c>
       <c r="S8">
-        <v>0.0409119439736463</v>
+        <v>0.01539072416562567</v>
       </c>
       <c r="T8">
-        <v>0.04091194397364629</v>
+        <v>0.01539072416562566</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,7 +965,7 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -983,40 +980,40 @@
         <v>4.183953000000001</v>
       </c>
       <c r="I9">
-        <v>0.06719067092662021</v>
+        <v>0.05937834432696559</v>
       </c>
       <c r="J9">
-        <v>0.06719067092662019</v>
+        <v>0.05937834432696559</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>2.450022</v>
+        <v>0.02679433333333333</v>
       </c>
       <c r="N9">
-        <v>7.350066</v>
+        <v>0.080383</v>
       </c>
       <c r="O9">
-        <v>0.2264286991208885</v>
+        <v>0.00283467936786964</v>
       </c>
       <c r="P9">
-        <v>0.2264286991208884</v>
+        <v>0.002834679367869639</v>
       </c>
       <c r="Q9">
-        <v>3.416925632322001</v>
+        <v>0.03736874377766668</v>
       </c>
       <c r="R9">
-        <v>30.75233069089801</v>
+        <v>0.3363186939990001</v>
       </c>
       <c r="S9">
-        <v>0.01521389621097432</v>
+        <v>0.0001683185675619087</v>
       </c>
       <c r="T9">
-        <v>0.01521389621097431</v>
+        <v>0.0001683185675619086</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,7 +1027,7 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1045,40 +1042,40 @@
         <v>4.183953000000001</v>
       </c>
       <c r="I10">
-        <v>0.06719067092662021</v>
+        <v>0.05937834432696559</v>
       </c>
       <c r="J10">
-        <v>0.06719067092662019</v>
+        <v>0.05937834432696559</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.02679433333333334</v>
+        <v>0.4704593333333333</v>
       </c>
       <c r="N10">
-        <v>0.08038300000000001</v>
+        <v>1.411378</v>
       </c>
       <c r="O10">
-        <v>0.002476306759889555</v>
+        <v>0.04977176886736147</v>
       </c>
       <c r="P10">
-        <v>0.002476306759889555</v>
+        <v>0.04977176886736145</v>
       </c>
       <c r="Q10">
-        <v>0.03736874377766668</v>
+        <v>0.6561265796926669</v>
       </c>
       <c r="R10">
-        <v>0.3363186939990001</v>
+        <v>5.905139217234001</v>
       </c>
       <c r="S10">
-        <v>0.0001663847126171042</v>
+        <v>0.002955365229568335</v>
       </c>
       <c r="T10">
-        <v>0.0001663847126171042</v>
+        <v>0.002955365229568335</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,7 +1089,7 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1107,45 +1104,45 @@
         <v>4.183953000000001</v>
       </c>
       <c r="I11">
-        <v>0.06719067092662021</v>
+        <v>0.05937834432696559</v>
       </c>
       <c r="J11">
-        <v>0.06719067092662019</v>
+        <v>0.05937834432696559</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>1.706050333333333</v>
+        <v>0.04659033333333334</v>
       </c>
       <c r="N11">
-        <v>5.118151</v>
+        <v>0.139771</v>
       </c>
       <c r="O11">
-        <v>0.157671546464246</v>
+        <v>0.004928977145994893</v>
       </c>
       <c r="P11">
-        <v>0.1576715464642459</v>
+        <v>0.004928977145994892</v>
       </c>
       <c r="Q11">
-        <v>2.379344803433667</v>
+        <v>0.06497725497366669</v>
       </c>
       <c r="R11">
-        <v>21.414103230903</v>
+        <v>0.5847952947630001</v>
       </c>
       <c r="S11">
-        <v>0.01059405699297046</v>
+        <v>0.000292674502154629</v>
       </c>
       <c r="T11">
-        <v>0.01059405699297046</v>
+        <v>0.0002926745021546288</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -1154,7 +1151,7 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1163,61 +1160,61 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.394651</v>
+        <v>0.6246503333333333</v>
       </c>
       <c r="H12">
-        <v>4.183953000000001</v>
+        <v>1.873951</v>
       </c>
       <c r="I12">
-        <v>0.06719067092662021</v>
+        <v>0.02659497076804196</v>
       </c>
       <c r="J12">
-        <v>0.06719067092662019</v>
+        <v>0.02659497076804196</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.04659033333333334</v>
+        <v>6.458467</v>
       </c>
       <c r="N12">
-        <v>0.139771</v>
+        <v>19.375401</v>
       </c>
       <c r="O12">
-        <v>0.004305834220376484</v>
+        <v>0.6832669775810905</v>
       </c>
       <c r="P12">
-        <v>0.004305834220376484</v>
+        <v>0.6832669775810902</v>
       </c>
       <c r="Q12">
-        <v>0.06497725497366669</v>
+        <v>4.034283564372333</v>
       </c>
       <c r="R12">
-        <v>0.5847952947630001</v>
+        <v>36.308552079351</v>
       </c>
       <c r="S12">
-        <v>0.0002893118901658966</v>
+        <v>0.01817146529553748</v>
       </c>
       <c r="T12">
-        <v>0.0002893118901658966</v>
+        <v>0.01817146529553748</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>21</v>
       </c>
-      <c r="B13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
-        <v>27</v>
-      </c>
       <c r="E13">
         <v>3</v>
       </c>
@@ -1225,46 +1222,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.394651</v>
+        <v>0.6246503333333333</v>
       </c>
       <c r="H13">
-        <v>4.183953000000001</v>
+        <v>1.873951</v>
       </c>
       <c r="I13">
-        <v>0.06719067092662021</v>
+        <v>0.02659497076804196</v>
       </c>
       <c r="J13">
-        <v>0.06719067092662019</v>
+        <v>0.02659497076804196</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.002428</v>
+        <v>2.450022</v>
       </c>
       <c r="N13">
-        <v>0.007284000000000001</v>
+        <v>7.350066</v>
       </c>
       <c r="O13">
-        <v>0.0002243934468610964</v>
+        <v>0.2591975970376838</v>
       </c>
       <c r="P13">
-        <v>0.0002243934468610964</v>
+        <v>0.2591975970376837</v>
       </c>
       <c r="Q13">
-        <v>0.003386212628000001</v>
+        <v>1.530407058974</v>
       </c>
       <c r="R13">
-        <v>0.03047591365200001</v>
+        <v>13.773663530766</v>
       </c>
       <c r="S13">
-        <v>1.507714624613397E-05</v>
+        <v>0.006893352516363921</v>
       </c>
       <c r="T13">
-        <v>1.507714624613396E-05</v>
+        <v>0.006893352516363918</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,7 +1275,7 @@
         <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -1287,46 +1284,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.9925623333333333</v>
+        <v>0.6246503333333333</v>
       </c>
       <c r="H14">
-        <v>2.977687</v>
+        <v>1.873951</v>
       </c>
       <c r="I14">
-        <v>0.0478190809838148</v>
+        <v>0.02659497076804196</v>
       </c>
       <c r="J14">
-        <v>0.04781908098381479</v>
+        <v>0.02659497076804196</v>
       </c>
       <c r="K14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>6.588395333333334</v>
+        <v>0.02679433333333333</v>
       </c>
       <c r="N14">
-        <v>19.765186</v>
+        <v>0.080383</v>
       </c>
       <c r="O14">
-        <v>0.6088932199877385</v>
+        <v>0.00283467936786964</v>
       </c>
       <c r="P14">
-        <v>0.6088932199877384</v>
+        <v>0.002834679367869639</v>
       </c>
       <c r="Q14">
-        <v>6.539393044975778</v>
+        <v>0.01673708924811111</v>
       </c>
       <c r="R14">
-        <v>58.854537404782</v>
+        <v>0.150633803233</v>
       </c>
       <c r="S14">
-        <v>0.02911671419708943</v>
+        <v>7.538821492526475E-05</v>
       </c>
       <c r="T14">
-        <v>0.02911671419708942</v>
+        <v>7.538821492526472E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,7 +1337,7 @@
         <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1349,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.9925623333333333</v>
+        <v>0.6246503333333333</v>
       </c>
       <c r="H15">
-        <v>2.977687</v>
+        <v>1.873951</v>
       </c>
       <c r="I15">
-        <v>0.0478190809838148</v>
+        <v>0.02659497076804196</v>
       </c>
       <c r="J15">
-        <v>0.04781908098381479</v>
+        <v>0.02659497076804196</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>2.450022</v>
+        <v>0.4704593333333333</v>
       </c>
       <c r="N15">
-        <v>7.350066</v>
+        <v>1.411378</v>
       </c>
       <c r="O15">
-        <v>0.2264286991208885</v>
+        <v>0.04977176886736147</v>
       </c>
       <c r="P15">
-        <v>0.2264286991208884</v>
+        <v>0.04977176886736145</v>
       </c>
       <c r="Q15">
-        <v>2.431799553038</v>
+        <v>0.2938725793864445</v>
       </c>
       <c r="R15">
-        <v>21.886195977342</v>
+        <v>2.644853214478</v>
       </c>
       <c r="S15">
-        <v>0.0108276123003216</v>
+        <v>0.001323678738101219</v>
       </c>
       <c r="T15">
-        <v>0.0108276123003216</v>
+        <v>0.001323678738101219</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,7 +1399,7 @@
         <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -1411,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.9925623333333333</v>
+        <v>0.6246503333333333</v>
       </c>
       <c r="H16">
-        <v>2.977687</v>
+        <v>1.873951</v>
       </c>
       <c r="I16">
-        <v>0.0478190809838148</v>
+        <v>0.02659497076804196</v>
       </c>
       <c r="J16">
-        <v>0.04781908098381479</v>
+        <v>0.02659497076804196</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -1429,33 +1426,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.02679433333333334</v>
+        <v>0.04659033333333334</v>
       </c>
       <c r="N16">
-        <v>0.08038300000000001</v>
+        <v>0.139771</v>
       </c>
       <c r="O16">
-        <v>0.002476306759889555</v>
+        <v>0.004928977145994893</v>
       </c>
       <c r="P16">
-        <v>0.002476306759889555</v>
+        <v>0.004928977145994892</v>
       </c>
       <c r="Q16">
-        <v>0.02659504601344445</v>
+        <v>0.02910266724677778</v>
       </c>
       <c r="R16">
-        <v>0.239355414121</v>
+        <v>0.261924005221</v>
       </c>
       <c r="S16">
-        <v>0.0001184147134919266</v>
+        <v>0.0001310860031140811</v>
       </c>
       <c r="T16">
-        <v>0.0001184147134919266</v>
+        <v>0.0001310860031140811</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
         <v>24</v>
@@ -1464,25 +1461,25 @@
         <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.9925623333333333</v>
+        <v>0.229944</v>
       </c>
       <c r="H17">
-        <v>2.977687</v>
+        <v>0.689832</v>
       </c>
       <c r="I17">
-        <v>0.0478190809838148</v>
+        <v>0.009790043536282392</v>
       </c>
       <c r="J17">
-        <v>0.04781908098381479</v>
+        <v>0.009790043536282392</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,33 +1488,33 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.706050333333333</v>
+        <v>6.458467</v>
       </c>
       <c r="N17">
-        <v>5.118151</v>
+        <v>19.375401</v>
       </c>
       <c r="O17">
-        <v>0.157671546464246</v>
+        <v>0.6832669775810905</v>
       </c>
       <c r="P17">
-        <v>0.1576715464642459</v>
+        <v>0.6832669775810902</v>
       </c>
       <c r="Q17">
-        <v>1.693361299637445</v>
+        <v>1.485085735848</v>
       </c>
       <c r="R17">
-        <v>15.240251696737</v>
+        <v>13.365771622632</v>
       </c>
       <c r="S17">
-        <v>0.007539708449217096</v>
+        <v>0.00668921345742296</v>
       </c>
       <c r="T17">
-        <v>0.007539708449217094</v>
+        <v>0.006689213457422958</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>24</v>
@@ -1526,60 +1523,60 @@
         <v>25</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.9925623333333333</v>
+        <v>0.229944</v>
       </c>
       <c r="H18">
-        <v>2.977687</v>
+        <v>0.689832</v>
       </c>
       <c r="I18">
-        <v>0.0478190809838148</v>
+        <v>0.009790043536282392</v>
       </c>
       <c r="J18">
-        <v>0.04781908098381479</v>
+        <v>0.009790043536282392</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M18">
-        <v>0.04659033333333334</v>
+        <v>2.450022</v>
       </c>
       <c r="N18">
-        <v>0.139771</v>
+        <v>7.350066</v>
       </c>
       <c r="O18">
-        <v>0.004305834220376484</v>
+        <v>0.2591975970376838</v>
       </c>
       <c r="P18">
-        <v>0.004305834220376484</v>
+        <v>0.2591975970376837</v>
       </c>
       <c r="Q18">
-        <v>0.04624380996411111</v>
+        <v>0.5633678587680001</v>
       </c>
       <c r="R18">
-        <v>0.416194289677</v>
+        <v>5.070310728912</v>
       </c>
       <c r="S18">
-        <v>0.0002059010352870642</v>
+        <v>0.002537555759498704</v>
       </c>
       <c r="T18">
-        <v>0.0002059010352870641</v>
+        <v>0.002537555759498703</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
         <v>24</v>
@@ -1588,25 +1585,25 @@
         <v>25</v>
       </c>
       <c r="D19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.9925623333333333</v>
+        <v>0.229944</v>
       </c>
       <c r="H19">
-        <v>2.977687</v>
+        <v>0.689832</v>
       </c>
       <c r="I19">
-        <v>0.0478190809838148</v>
+        <v>0.009790043536282392</v>
       </c>
       <c r="J19">
-        <v>0.04781908098381479</v>
+        <v>0.009790043536282392</v>
       </c>
       <c r="K19">
         <v>1</v>
@@ -1615,28 +1612,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M19">
-        <v>0.002428</v>
+        <v>0.02679433333333333</v>
       </c>
       <c r="N19">
-        <v>0.007284000000000001</v>
+        <v>0.080383</v>
       </c>
       <c r="O19">
-        <v>0.0002243934468610964</v>
+        <v>0.00283467936786964</v>
       </c>
       <c r="P19">
-        <v>0.0002243934468610964</v>
+        <v>0.002834679367869639</v>
       </c>
       <c r="Q19">
-        <v>0.002409941345333333</v>
+        <v>0.006161196184</v>
       </c>
       <c r="R19">
-        <v>0.021689472108</v>
+        <v>0.055450765656</v>
       </c>
       <c r="S19">
-        <v>1.073028840768811E-05</v>
+        <v>2.775163442284523E-05</v>
       </c>
       <c r="T19">
-        <v>1.073028840768811E-05</v>
+        <v>2.775163442284522E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,25 +1647,25 @@
         <v>25</v>
       </c>
       <c r="D20" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G20">
-        <v>0.03741866666666666</v>
+        <v>0.229944</v>
       </c>
       <c r="H20">
-        <v>0.112256</v>
+        <v>0.689832</v>
       </c>
       <c r="I20">
-        <v>0.001802734389114475</v>
+        <v>0.009790043536282392</v>
       </c>
       <c r="J20">
-        <v>0.001802734389114475</v>
+        <v>0.009790043536282392</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>6.588395333333334</v>
+        <v>0.4704593333333333</v>
       </c>
       <c r="N20">
-        <v>19.765186</v>
+        <v>1.411378</v>
       </c>
       <c r="O20">
-        <v>0.6088932199877385</v>
+        <v>0.04977176886736147</v>
       </c>
       <c r="P20">
-        <v>0.6088932199877384</v>
+        <v>0.04977176886736145</v>
       </c>
       <c r="Q20">
-        <v>0.2465289688462222</v>
+        <v>0.108179300944</v>
       </c>
       <c r="R20">
-        <v>2.218760719616</v>
+        <v>0.973613708496</v>
       </c>
       <c r="S20">
-        <v>0.001097672746970541</v>
+        <v>0.0004872677840892533</v>
       </c>
       <c r="T20">
-        <v>0.001097672746970541</v>
+        <v>0.0004872677840892532</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,303 +1709,55 @@
         <v>25</v>
       </c>
       <c r="D21" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>0.229944</v>
+      </c>
+      <c r="H21">
+        <v>0.689832</v>
+      </c>
+      <c r="I21">
+        <v>0.009790043536282392</v>
+      </c>
+      <c r="J21">
+        <v>0.009790043536282392</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G21">
-        <v>0.03741866666666666</v>
-      </c>
-      <c r="H21">
-        <v>0.112256</v>
-      </c>
-      <c r="I21">
-        <v>0.001802734389114475</v>
-      </c>
-      <c r="J21">
-        <v>0.001802734389114475</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
       <c r="M21">
-        <v>2.450022</v>
+        <v>0.04659033333333334</v>
       </c>
       <c r="N21">
-        <v>7.350066</v>
+        <v>0.139771</v>
       </c>
       <c r="O21">
-        <v>0.2264286991208885</v>
+        <v>0.004928977145994893</v>
       </c>
       <c r="P21">
-        <v>0.2264286991208884</v>
+        <v>0.004928977145994892</v>
       </c>
       <c r="Q21">
-        <v>0.09167655654399999</v>
+        <v>0.010713167608</v>
       </c>
       <c r="R21">
-        <v>0.825089008896</v>
+        <v>0.09641850847200001</v>
       </c>
       <c r="S21">
-        <v>0.0004081908025876802</v>
+        <v>4.825490084863094E-05</v>
       </c>
       <c r="T21">
-        <v>0.0004081908025876801</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" t="s">
-        <v>25</v>
-      </c>
-      <c r="D22" t="s">
-        <v>26</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-      <c r="F22">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G22">
-        <v>0.03741866666666666</v>
-      </c>
-      <c r="H22">
-        <v>0.112256</v>
-      </c>
-      <c r="I22">
-        <v>0.001802734389114475</v>
-      </c>
-      <c r="J22">
-        <v>0.001802734389114475</v>
-      </c>
-      <c r="K22">
-        <v>1</v>
-      </c>
-      <c r="L22">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M22">
-        <v>0.02679433333333334</v>
-      </c>
-      <c r="N22">
-        <v>0.08038300000000001</v>
-      </c>
-      <c r="O22">
-        <v>0.002476306759889555</v>
-      </c>
-      <c r="P22">
-        <v>0.002476306759889555</v>
-      </c>
-      <c r="Q22">
-        <v>0.001002608227555556</v>
-      </c>
-      <c r="R22">
-        <v>0.009023474048</v>
-      </c>
-      <c r="S22">
-        <v>4.464123354049541E-06</v>
-      </c>
-      <c r="T22">
-        <v>4.464123354049541E-06</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D23" t="s">
-        <v>22</v>
-      </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-      <c r="F23">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G23">
-        <v>0.03741866666666666</v>
-      </c>
-      <c r="H23">
-        <v>0.112256</v>
-      </c>
-      <c r="I23">
-        <v>0.001802734389114475</v>
-      </c>
-      <c r="J23">
-        <v>0.001802734389114475</v>
-      </c>
-      <c r="K23">
-        <v>3</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>1.706050333333333</v>
-      </c>
-      <c r="N23">
-        <v>5.118151</v>
-      </c>
-      <c r="O23">
-        <v>0.157671546464246</v>
-      </c>
-      <c r="P23">
-        <v>0.1576715464642459</v>
-      </c>
-      <c r="Q23">
-        <v>0.06383812873955555</v>
-      </c>
-      <c r="R23">
-        <v>0.574543158656</v>
-      </c>
-      <c r="S23">
-        <v>0.000284239918995957</v>
-      </c>
-      <c r="T23">
-        <v>0.000284239918995957</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" t="s">
-        <v>23</v>
-      </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-      <c r="F24">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G24">
-        <v>0.03741866666666666</v>
-      </c>
-      <c r="H24">
-        <v>0.112256</v>
-      </c>
-      <c r="I24">
-        <v>0.001802734389114475</v>
-      </c>
-      <c r="J24">
-        <v>0.001802734389114475</v>
-      </c>
-      <c r="K24">
-        <v>1</v>
-      </c>
-      <c r="L24">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M24">
-        <v>0.04659033333333334</v>
-      </c>
-      <c r="N24">
-        <v>0.139771</v>
-      </c>
-      <c r="O24">
-        <v>0.004305834220376484</v>
-      </c>
-      <c r="P24">
-        <v>0.004305834220376484</v>
-      </c>
-      <c r="Q24">
-        <v>0.001743348152888889</v>
-      </c>
-      <c r="R24">
-        <v>0.015690133376</v>
-      </c>
-      <c r="S24">
-        <v>7.762275422898604E-06</v>
-      </c>
-      <c r="T24">
-        <v>7.762275422898602E-06</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" t="s">
-        <v>24</v>
-      </c>
-      <c r="C25" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25" t="s">
-        <v>27</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G25">
-        <v>0.03741866666666666</v>
-      </c>
-      <c r="H25">
-        <v>0.112256</v>
-      </c>
-      <c r="I25">
-        <v>0.001802734389114475</v>
-      </c>
-      <c r="J25">
-        <v>0.001802734389114475</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M25">
-        <v>0.002428</v>
-      </c>
-      <c r="N25">
-        <v>0.007284000000000001</v>
-      </c>
-      <c r="O25">
-        <v>0.0002243934468610964</v>
-      </c>
-      <c r="P25">
-        <v>0.0002243934468610964</v>
-      </c>
-      <c r="Q25">
-        <v>9.085252266666666E-05</v>
-      </c>
-      <c r="R25">
-        <v>0.000817672704</v>
-      </c>
-      <c r="S25">
-        <v>4.045217833484301E-07</v>
-      </c>
-      <c r="T25">
-        <v>4.0452178334843E-07</v>
+        <v>4.825490084863092E-05</v>
       </c>
     </row>
   </sheetData>
